--- a/medicine/Handicap/Elyn_Saks/Elyn_Saks.xlsx
+++ b/medicine/Handicap/Elyn_Saks/Elyn_Saks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elyn R. Saks est une juriste, psychanalyste et professeure d'université américaine. Elle est l'auteure d'un récit autobiographique dans lequel elle témoigne de son expérience personnelle de personne atteinte de schizophrénie.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est titulaire de la chaire Orrin B. Evans Professor of Law, Psychology, and Psychiatry and the Behavioral Sciences à l'école de droit de l'université de Californie du Sud. Elle est experte sur les lois américaines concernant la santé mentale. Saks vit avec la schizophrénie ; elle a décrit son expérience dans un récit autobiographique qui a été primé : The Center Cannot Hold, publié chez Hyperion, en 2007[1]. Saks a aussi survécu au cancer[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est titulaire de la chaire Orrin B. Evans Professor of Law, Psychology, and Psychiatry and the Behavioral Sciences à l'école de droit de l'université de Californie du Sud. Elle est experte sur les lois américaines concernant la santé mentale. Saks vit avec la schizophrénie ; elle a décrit son expérience dans un récit autobiographique qui a été primé : The Center Cannot Hold, publié chez Hyperion, en 2007. Saks a aussi survécu au cancer.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle obtient sa licence à l'université Vanderbilt puis sa maîtrise à l'université d'Oxford, et un doctorat en droit à l'école de droit de l'université Yale, où elle est rédactrice du magazine Yale Law Journal. 
 Elle a suivi une formation en psychanalyse au New Center for Psychoanalysis. 
@@ -576,10 +592,12 @@
           <t>Recherche sur la maladie mentale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saks a connu ses premiers symptômes de maladie mentale à l'âge de huit ans, mais elle a eu son premier grand épisode psychotique lorsqu'elle étudiait à l'université d'Oxford. Un nouvel épisode s'est produit quand Saks été étudiante à la faculté de droit de Yale, après quoi elle a « fini par être contrainte par la force, et obligée de prendre des médicaments antipsychotiques »[3].
-Elle témoigne de son expérience dans un récit autobiographique,The Center Cannot Hold: My Journey Through Madness (2007). Saks a aussi survécu au cancer. Elle souligne que « la maladie, quelle que soit sa nature, ne définit pas un individu, en faisant remarquer les différentes façons dont les maladies mentales et physiques sont considérées »[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saks a connu ses premiers symptômes de maladie mentale à l'âge de huit ans, mais elle a eu son premier grand épisode psychotique lorsqu'elle étudiait à l'université d'Oxford. Un nouvel épisode s'est produit quand Saks été étudiante à la faculté de droit de Yale, après quoi elle a « fini par être contrainte par la force, et obligée de prendre des médicaments antipsychotiques ».
+Elle témoigne de son expérience dans un récit autobiographique,The Center Cannot Hold: My Journey Through Madness (2007). Saks a aussi survécu au cancer. Elle souligne que « la maladie, quelle que soit sa nature, ne définit pas un individu, en faisant remarquer les différentes façons dont les maladies mentales et physiques sont considérées ».
 </t>
         </is>
       </c>
@@ -608,11 +626,13 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« il y a un besoin énorme de faire imploser les mythes de la maladie mentale, de mettre un visage sur elle, pour montrer aux gens qu'un diagnostic ne doit pas conduire à une vie douloureuse et marginale. »[5] Au cours des dernières années, les chercheurs ont commencé à parler de soins de santé mentale de la même manière que les spécialistes de la toxicomanie parlent de guérison — l'auto-traitement à vie et la discipline des guides et programmes pour toxicomanes. L'idée reste controversée : la gestion d'une maladie mentale grave est plus compliquée que le simple fait d'éviter certains comportements[6]. Les approches incluent la « médication (en général), la thérapie (souvent), une mesure de bonne chance (toujours) — et, surtout, la force intérieure pour gérer ses propres démons, s'ils ne sont pas bannis ». Les origines de cette force, selon elle, sont diverses : elle rapporte des témoignages d'anciens patients qui évoquent comme ressources l'amour, le pardon, la foi en Dieu, ou encore les relations amicales. Saks dit : « nous qui sommes aux prises avec ces troubles pouvons être comblés, heureux, productifs, si nous avons les bonnes ressources. »
-À plusieurs reprises, elle a parlé aux membres de l'association américaine de psychiatrie sur le thème d'être un professionnel reconnu qui a eu une grave maladie mentale, et de son point de vue sur les soins psychiatriques. En juin 2012, Saks a donné une conférence TED en plaidant pour la compassion à l'égard des personnes atteintes de maladie mentale[7].
-Elle a fait des recherches sur les personnes schizophrènes à haut potentiel à Los Angeles, qui souffrent de « comportements légèrement délirants ou hallucinatoires » qui font des études et deviennent des professionnels reconnus[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« il y a un besoin énorme de faire imploser les mythes de la maladie mentale, de mettre un visage sur elle, pour montrer aux gens qu'un diagnostic ne doit pas conduire à une vie douloureuse et marginale. » Au cours des dernières années, les chercheurs ont commencé à parler de soins de santé mentale de la même manière que les spécialistes de la toxicomanie parlent de guérison — l'auto-traitement à vie et la discipline des guides et programmes pour toxicomanes. L'idée reste controversée : la gestion d'une maladie mentale grave est plus compliquée que le simple fait d'éviter certains comportements. Les approches incluent la « médication (en général), la thérapie (souvent), une mesure de bonne chance (toujours) — et, surtout, la force intérieure pour gérer ses propres démons, s'ils ne sont pas bannis ». Les origines de cette force, selon elle, sont diverses : elle rapporte des témoignages d'anciens patients qui évoquent comme ressources l'amour, le pardon, la foi en Dieu, ou encore les relations amicales. Saks dit : « nous qui sommes aux prises avec ces troubles pouvons être comblés, heureux, productifs, si nous avons les bonnes ressources. »
+À plusieurs reprises, elle a parlé aux membres de l'association américaine de psychiatrie sur le thème d'être un professionnel reconnu qui a eu une grave maladie mentale, et de son point de vue sur les soins psychiatriques. En juin 2012, Saks a donné une conférence TED en plaidant pour la compassion à l'égard des personnes atteintes de maladie mentale.
+Elle a fait des recherches sur les personnes schizophrènes à haut potentiel à Los Angeles, qui souffrent de « comportements légèrement délirants ou hallucinatoires » qui font des études et deviennent des professionnels reconnus.
 </t>
         </is>
       </c>
@@ -641,13 +661,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2009 : bourse de la fondation MacArthur[9],[10].
-une salle d'hôpital[11] est nommé « The Elyn Saks Ward » à l'hôpital de Pelham Woods à Dorking
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2009 : bourse de la fondation MacArthur,.
+une salle d'hôpital est nommé « The Elyn Saks Ward » à l'hôpital de Pelham Woods à Dorking
 membre élue de l'American Law Institute
 prix pour la créativité dans la recherche et l'érudition
-2004 : prix universitaire Phi Kappa[12].</t>
+2004 : prix universitaire Phi Kappa.</t>
         </is>
       </c>
     </row>
@@ -675,7 +697,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) The Center Cannot Hold : My Journey Through Madness, 2007, 340 p. (ISBN 978-1-4013-0138-5).
 (en) Refusing Care : Forced Treatment and the Rights of the Mentally Ill (ISBN 978-0-226-73397-5).
